--- a/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>AGMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,156 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5800</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>3400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +826,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
         <v>1000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
@@ -836,14 +850,17 @@
       <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="J12" s="3">
+        <v>400</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +920,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,17 +1043,18 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1033,43 +1067,49 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1137,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3800</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3800</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,37 +1329,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-6600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-4700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-800</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,17 +1425,20 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1381,43 +1451,49 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2900</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2900</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,26 +1620,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1650,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,26 +1682,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>3500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,8 +1714,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,26 +1746,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>82700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,26 +1778,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E46" s="3">
         <v>7300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>89900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,23 +1810,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,8 +1842,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1754,8 +1862,8 @@
       <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1766,8 +1874,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1775,17 +1886,17 @@
         <v>7100</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>2900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1795,8 +1906,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1970,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2002,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,26 +2034,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E54" s="3">
         <v>14500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2066,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,26 +2096,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,8 +2126,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,26 +2158,29 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>84000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,26 +2190,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>84100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,8 +2222,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2254,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2286,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,26 +2382,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>84100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2414,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,26 +2556,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2588,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,26 +2684,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E76" s="3">
         <v>11900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2716,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2900</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2833,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3071,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3165,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4600</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-400</v>
       </c>
       <c r="G94" s="3">
         <v>-400</v>
       </c>
       <c r="H94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3339,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3134,53 +3383,59 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>AGMH</t>
   </si>
@@ -971,8 +971,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>1900</v>
@@ -1003,8 +1003,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
         <v>-1200</v>
@@ -1049,8 +1049,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-200</v>
@@ -1081,8 +1081,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-600</v>
       </c>
       <c r="E21" s="3">
         <v>-1400</v>
@@ -1241,8 +1241,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
         <v>-1600</v>
@@ -1273,8 +1273,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
         <v>-1600</v>
@@ -1433,8 +1433,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
@@ -1465,8 +1465,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
         <v>-1600</v>
@@ -1529,8 +1529,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
         <v>-1600</v>
@@ -2793,8 +2793,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
         <v>-1600</v>
@@ -3411,8 +3411,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-500</v>
       </c>
       <c r="E102" s="3">
         <v>-5800</v>

--- a/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>AGMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,64 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -726,95 +730,104 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5800</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>200</v>
-      </c>
       <c r="F9" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>3400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,25 +840,26 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
         <v>1000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
@@ -853,14 +867,17 @@
       <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
+      <c r="K12" s="3">
+        <v>400</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +908,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,8 +943,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,8 +978,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +992,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
-        <v>1900</v>
-      </c>
       <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
-        <v>-1200</v>
-      </c>
       <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,20 +1077,21 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1070,46 +1104,52 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
-        <v>-1400</v>
-      </c>
       <c r="F21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1140,72 +1180,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1400</v>
       </c>
       <c r="F23" s="3">
         <v>-700</v>
       </c>
       <c r="G23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1285,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-1600</v>
-      </c>
       <c r="F26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-1600</v>
-      </c>
       <c r="F27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,40 +1390,46 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-6600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-4700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-800</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1460,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,20 +1495,23 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1454,46 +1524,52 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-1600</v>
-      </c>
       <c r="F33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1600,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-1600</v>
-      </c>
       <c r="F35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1692,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,29 +1707,30 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1653,8 +1740,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,29 +1775,32 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>3500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1810,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1749,29 +1845,32 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>82700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1781,29 +1880,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E46" s="3">
         <v>6600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>89900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,26 +1915,29 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,13 +1950,16 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -1865,8 +1973,8 @@
       <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1877,29 +1985,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>7100</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>2900</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1909,8 +2020,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2055,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,8 +2090,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2005,8 +2125,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,29 +2160,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E54" s="3">
         <v>13800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2069,8 +2195,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2212,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,29 +2227,30 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,8 +2260,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2161,8 +2295,11 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2170,20 +2307,20 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>84000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,29 +2330,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>84100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2225,8 +2365,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2257,8 +2400,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2289,8 +2435,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2470,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2505,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,29 +2540,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>84100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2417,8 +2575,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2592,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2625,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2660,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2695,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,29 +2730,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,8 +2765,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2800,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2835,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,29 +2870,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>11200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2719,8 +2905,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2940,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-1600</v>
-      </c>
       <c r="F81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,8 +3032,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2843,31 +3042,34 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3100,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3135,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3170,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3205,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3240,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
       <c r="F89" s="3">
+        <v>400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3292,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3086,26 +3307,29 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3360,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,8 +3395,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3177,31 +3407,34 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-4600</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-400</v>
       </c>
       <c r="H94" s="3">
         <v>-400</v>
       </c>
       <c r="I94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3447,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3480,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3515,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3550,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,100 +3585,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>-500</v>
-      </c>
       <c r="F100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
-        <v>-5800</v>
-      </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-5700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
@@ -739,7 +739,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>5100</v>
+        <v>1000</v>
       </c>
       <c r="I8" s="3">
         <v>4200</v>
@@ -774,7 +774,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>1600</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>3400</v>
+        <v>900</v>
       </c>
       <c r="I10" s="3">
         <v>2600</v>
@@ -859,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
@@ -1011,7 +1011,7 @@
         <v>900</v>
       </c>
       <c r="H17" s="3">
-        <v>7500</v>
+        <v>3400</v>
       </c>
       <c r="I17" s="3">
         <v>4100</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>-700</v>
       </c>
       <c r="H21" s="3">
-        <v>-2000</v>
+        <v>-2300</v>
       </c>
       <c r="I21" s="3">
         <v>300</v>
@@ -1201,7 +1201,7 @@
         <v>-700</v>
       </c>
       <c r="H23" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I23" s="3">
         <v>100</v>
@@ -1236,7 +1236,7 @@
         <v>-200</v>
       </c>
       <c r="H24" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
@@ -1306,7 +1306,7 @@
         <v>-600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1800</v>
+        <v>-1400</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
@@ -1341,7 +1341,7 @@
         <v>-600</v>
       </c>
       <c r="H27" s="3">
-        <v>-1800</v>
+        <v>-1400</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-6600</v>
+        <v>-1900</v>
       </c>
       <c r="I29" s="3">
         <v>-4700</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>-600</v>
       </c>
       <c r="H33" s="3">
-        <v>-8400</v>
+        <v>-3300</v>
       </c>
       <c r="I33" s="3">
         <v>-5100</v>
@@ -1621,7 +1621,7 @@
         <v>-600</v>
       </c>
       <c r="H35" s="3">
-        <v>-8400</v>
+        <v>-3300</v>
       </c>
       <c r="I35" s="3">
         <v>-5100</v>
@@ -3001,7 +3001,7 @@
         <v>-600</v>
       </c>
       <c r="H81" s="3">
-        <v>-8400</v>
+        <v>-3300</v>
       </c>
       <c r="I81" s="3">
         <v>-5100</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -3261,7 +3261,7 @@
         <v>-600</v>
       </c>
       <c r="H89" s="3">
-        <v>-2800</v>
+        <v>5300</v>
       </c>
       <c r="I89" s="3">
         <v>-8100</v>
@@ -3311,7 +3311,7 @@
         <v>3</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>-4600</v>
       </c>
       <c r="H94" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-400</v>
@@ -3606,7 +3606,7 @@
         <v>-300</v>
       </c>
       <c r="H100" s="3">
-        <v>6100</v>
+        <v>1600</v>
       </c>
       <c r="I100" s="3">
         <v>4400</v>
@@ -3641,7 +3641,7 @@
         <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
@@ -3676,7 +3676,7 @@
         <v>-5700</v>
       </c>
       <c r="H102" s="3">
-        <v>3200</v>
+        <v>7200</v>
       </c>
       <c r="I102" s="3">
         <v>-4000</v>

--- a/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>AGMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,182 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5800</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>-100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,28 +854,29 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
         <v>600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
@@ -870,14 +884,17 @@
       <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
+      <c r="L12" s="3">
+        <v>400</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,8 +928,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,8 +966,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1004,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,78 +1019,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,78 +1111,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-600</v>
       </c>
       <c r="F21" s="3">
         <v>-600</v>
       </c>
       <c r="G21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1183,16 +1223,19 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-700</v>
       </c>
       <c r="F23" s="3">
         <v>-700</v>
@@ -1201,60 +1244,66 @@
         <v>-700</v>
       </c>
       <c r="H23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,43 +1451,49 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-4700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-800</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,78 +1565,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,32 +1794,33 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1743,8 +1830,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,32 +1868,35 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>3500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,8 +1906,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1848,8 +1944,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1857,23 +1956,23 @@
         <v>5400</v>
       </c>
       <c r="E45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>82700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1883,32 +1982,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E46" s="3">
         <v>6100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>89900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1918,8 +2020,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1929,18 +2034,18 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1953,16 +2058,19 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -1976,8 +2084,8 @@
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1988,8 +2096,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1997,23 +2108,23 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>7100</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>2900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2023,8 +2134,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,8 +2210,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2128,8 +2248,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,32 +2286,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2198,8 +2324,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,32 +2358,33 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2263,8 +2394,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2298,32 +2432,35 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>84000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,32 +2470,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>84100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2508,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2403,13 +2546,16 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2438,8 +2584,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,32 +2698,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>84100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2736,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,32 +2904,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2768,8 +2942,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,32 +3056,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2908,8 +3094,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,8 +3231,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3051,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -3060,16 +3259,19 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3457,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,25 +3513,26 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3322,14 +3543,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,8 +3625,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3410,31 +3640,34 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,8 +3831,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3597,100 +3843,109 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>AGMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>5300</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5800</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="D9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>-100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -864,22 +878,22 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
         <v>600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>400</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
@@ -887,14 +901,17 @@
       <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
+      <c r="M12" s="3">
+        <v>400</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,8 +948,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -969,8 +989,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>300</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,84 +1145,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>400</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-600</v>
       </c>
       <c r="G21" s="3">
         <v>-600</v>
       </c>
       <c r="H21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1226,19 +1266,22 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-700</v>
       </c>
       <c r="G23" s="3">
         <v>-700</v>
@@ -1247,63 +1290,69 @@
         <v>-700</v>
       </c>
       <c r="I23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1465,35 +1526,38 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-4700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-800</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1635,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,35 +1881,36 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1833,8 +1920,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,35 +1961,38 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>1500</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>3500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1909,31 +2002,34 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>4100</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1947,35 +2043,38 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5400</v>
+        <v>20000</v>
       </c>
       <c r="E45" s="3">
         <v>5400</v>
       </c>
       <c r="F45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G45" s="3">
         <v>5000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>82700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,35 +2084,38 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E46" s="3">
         <v>5900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>89900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2023,8 +2125,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2037,18 +2142,18 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2061,8 +2166,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2070,10 +2178,10 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2087,8 +2195,8 @@
       <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2099,8 +2207,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2111,23 +2222,23 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>7100</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>2900</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,8 +2330,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2251,8 +2371,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,35 +2412,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>92900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2327,8 +2453,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,35 +2489,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2397,28 +2528,31 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2435,35 +2569,38 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
-      </c>
-      <c r="E59" s="3">
-        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
       </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>84000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,35 +2610,38 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>84100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2511,8 +2651,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2549,16 +2692,19 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,35 +2856,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>84100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2897,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,35 +3078,38 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2945,8 +3119,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,35 +3242,38 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3283,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3253,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -3262,16 +3461,19 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,28 +3734,29 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3546,14 +3767,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,8 +3855,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3643,31 +3873,34 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,46 +4077,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>3300</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3881,71 +4130,77 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>AGMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,207 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E8" s="3">
         <v>5300</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5800</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E9" s="3">
         <v>4600</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>-100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -881,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
         <v>600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>400</v>
       </c>
       <c r="L12" s="3">
         <v>400</v>
@@ -904,14 +917,17 @@
       <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
+      <c r="N12" s="3">
+        <v>400</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,8 +1011,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,8 +1178,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1158,78 +1191,84 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-600</v>
       </c>
       <c r="H21" s="3">
         <v>-600</v>
       </c>
       <c r="I21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1269,22 +1308,25 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-700</v>
       </c>
       <c r="H23" s="3">
         <v>-700</v>
@@ -1293,66 +1335,72 @@
         <v>-700</v>
       </c>
       <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1529,35 +1589,38 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-800</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,8 +1704,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1650,78 +1719,84 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,38 +1967,39 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1923,8 +2009,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,38 +2053,41 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>3500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2005,17 +2097,20 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E44" s="3">
         <v>4100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2031,8 +2126,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2046,38 +2141,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E45" s="3">
         <v>20000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>5400</v>
       </c>
       <c r="F45" s="3">
         <v>5400</v>
       </c>
       <c r="G45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H45" s="3">
         <v>5000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>82700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2087,38 +2185,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E46" s="3">
         <v>27100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>89900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,8 +2229,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2145,18 +2249,18 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2169,22 +2273,25 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2198,8 +2305,8 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>100</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2210,8 +2317,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2225,23 +2335,23 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>7100</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>2900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2361,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,31 +2449,34 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2374,8 +2493,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,38 +2537,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E54" s="3">
         <v>27100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2456,8 +2581,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,38 +2619,39 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,17 +2661,20 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>3000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2554,8 +2687,8 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2572,38 +2705,41 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E59" s="3">
         <v>18600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>84000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2613,38 +2749,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E60" s="3">
         <v>23800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>84100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2654,8 +2793,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2695,19 +2837,22 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2736,8 +2881,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,38 +3013,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E66" s="3">
         <v>23800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>84100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2900,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,38 +3251,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3295,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,38 +3427,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3286,8 +3471,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3455,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -3464,16 +3662,19 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,8 +3954,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3746,20 +3966,20 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3770,14 +3990,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,13 +4084,16 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3876,31 +4105,34 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,127 +4322,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E100" s="3">
         <v>3300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>36700</v>
+        <v>31400</v>
       </c>
       <c r="E8" s="3">
         <v>5300</v>
@@ -782,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>30100</v>
+        <v>25500</v>
       </c>
       <c r="E9" s="3">
         <v>4600</v>
@@ -826,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6600</v>
+        <v>5900</v>
       </c>
       <c r="E10" s="3">
         <v>700</v>
@@ -1079,7 +1079,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31300</v>
+        <v>26300</v>
       </c>
       <c r="E17" s="3">
         <v>5000</v>
@@ -1123,7 +1123,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="E18" s="3">
         <v>300</v>
@@ -1229,7 +1229,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="E21" s="3">
         <v>400</v>
@@ -1317,7 +1317,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="E23" s="3">
         <v>400</v>
@@ -1361,7 +1361,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
@@ -1449,7 +1449,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E26" s="3">
         <v>200</v>
@@ -1493,7 +1493,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E27" s="3">
         <v>200</v>
@@ -1757,7 +1757,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E33" s="3">
         <v>200</v>
@@ -1845,7 +1845,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E35" s="3">
         <v>200</v>
@@ -2150,7 +2150,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>45200</v>
+        <v>43900</v>
       </c>
       <c r="E45" s="3">
         <v>20000</v>
@@ -2194,7 +2194,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>88600</v>
+        <v>87300</v>
       </c>
       <c r="E46" s="3">
         <v>27100</v>
@@ -2546,7 +2546,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>89300</v>
+        <v>88000</v>
       </c>
       <c r="E54" s="3">
         <v>27100</v>
@@ -2626,7 +2626,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19000</v>
+        <v>17700</v>
       </c>
       <c r="E57" s="3">
         <v>2200</v>
@@ -2758,7 +2758,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64100</v>
+        <v>62800</v>
       </c>
       <c r="E60" s="3">
         <v>23800</v>
@@ -3022,7 +3022,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>64300</v>
+        <v>63000</v>
       </c>
       <c r="E66" s="3">
         <v>23800</v>
@@ -3436,7 +3436,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="E76" s="3">
         <v>3300</v>
@@ -3573,7 +3573,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E81" s="3">
         <v>200</v>
@@ -3899,7 +3899,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1500</v>
+        <v>800</v>
       </c>
       <c r="E89" s="3">
         <v>-2300</v>
@@ -4331,7 +4331,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>19400</v>
+        <v>16200</v>
       </c>
       <c r="E100" s="3">
         <v>3300</v>
@@ -4419,7 +4419,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17900</v>
+        <v>17000</v>
       </c>
       <c r="E102" s="3">
         <v>900</v>

--- a/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>AGMH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,220 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E8" s="3">
         <v>31400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5300</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5800</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E9" s="3">
         <v>25500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4600</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>-100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>1600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E10" s="3">
         <v>5900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,13 +895,14 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -897,22 +911,22 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
         <v>600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>400</v>
       </c>
       <c r="M12" s="3">
         <v>400</v>
@@ -920,14 +934,17 @@
       <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
+      <c r="O12" s="3">
+        <v>400</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +987,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1034,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1099,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E17" s="3">
         <v>26300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E18" s="3">
         <v>5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,13 +1212,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1194,81 +1228,87 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E21" s="3">
         <v>5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-600</v>
       </c>
       <c r="I21" s="3">
         <v>-600</v>
       </c>
       <c r="J21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,25 +1351,28 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E23" s="3">
         <v>5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-700</v>
       </c>
       <c r="I23" s="3">
         <v>-700</v>
@@ -1338,69 +1381,75 @@
         <v>-700</v>
       </c>
       <c r="K23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E26" s="3">
         <v>3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E27" s="3">
         <v>3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,13 +1633,16 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1592,35 +1653,38 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-4700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-800</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,13 +1774,16 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1722,81 +1792,87 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E33" s="3">
         <v>3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E35" s="3">
         <v>3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,41 +2054,42 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E41" s="3">
         <v>18400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2012,8 +2099,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,41 +2146,44 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>3500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,20 +2193,23 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="3">
         <v>22400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4100</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,8 +2225,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2144,41 +2240,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E45" s="3">
         <v>43900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>5400</v>
       </c>
       <c r="G45" s="3">
         <v>5400</v>
       </c>
       <c r="H45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I45" s="3">
         <v>5000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>82700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,41 +2287,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E46" s="3">
         <v>87300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>89900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,25 +2334,28 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2259,11 +2364,11 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,25 +2381,28 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2308,8 +2416,8 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>100</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2320,8 +2428,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2338,23 +2449,23 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>7100</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>2900</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,17 +2569,20 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2478,8 +2598,8 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2496,8 +2616,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,41 +2663,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E54" s="3">
         <v>88000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2710,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,41 +2750,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E57" s="3">
         <v>17700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,20 +2795,23 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2690,8 +2824,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2708,41 +2842,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E59" s="3">
         <v>43500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>84000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,41 +2889,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E60" s="3">
         <v>62800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>84100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2936,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +2983,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2849,13 +2995,13 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2884,8 +3030,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,41 +3171,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E66" s="3">
         <v>63000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>84100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +3218,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,41 +3425,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3298,8 +3472,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,41 +3613,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E76" s="3">
         <v>25100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3660,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E81" s="3">
         <v>3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,13 +3827,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3656,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -3665,16 +3864,19 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4107,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,13 +4175,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -3969,20 +4190,20 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3993,14 +4214,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,17 +4314,20 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4108,31 +4338,34 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,136 +4568,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E100" s="3">
         <v>16200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E102" s="3">
         <v>17000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGMH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>AGMH</t>
   </si>
@@ -4182,16 +4182,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4199,8 +4199,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
